--- a/Files/Data_P3.xlsx
+++ b/Files/Data_P3.xlsx
@@ -1,110 +1,96 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ardalanmirshani/Dropbox/RAAVI/RAAVI/Files/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="720" windowWidth="17520" windowHeight="11200"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="ریاضی" sheetId="1" r:id="rId1"/>
-    <sheet name="فیزیک" sheetId="2" r:id="rId2"/>
-    <sheet name="شیمی" sheetId="3" r:id="rId3"/>
+    <sheet name="ریاضی" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="فیزیک" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="شیمی" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="23">
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>07-01</t>
-  </si>
-  <si>
-    <t>07-05</t>
-  </si>
-  <si>
-    <t>08-11</t>
-  </si>
-  <si>
-    <t>08-23</t>
-  </si>
-  <si>
-    <t>09-2</t>
-  </si>
-  <si>
-    <t>09-12</t>
-  </si>
-  <si>
-    <t>09-26</t>
-  </si>
-  <si>
-    <t>10-07</t>
-  </si>
-  <si>
-    <t>10-23</t>
-  </si>
-  <si>
-    <t>10-25</t>
-  </si>
-  <si>
-    <t>رضا مولایی</t>
-  </si>
-  <si>
-    <t>محمود وکیلی</t>
-  </si>
-  <si>
-    <t>علی شمس</t>
-  </si>
-  <si>
-    <t>رضا برهانی مرند</t>
-  </si>
-  <si>
-    <t>سینا وکیلی</t>
-  </si>
-  <si>
-    <t>رضا خوشخو</t>
-  </si>
-  <si>
-    <t>کسری نیک فرجام</t>
-  </si>
-  <si>
-    <t>سید محسن ابطحی</t>
-  </si>
-  <si>
-    <t>ندا اشرفی</t>
-  </si>
-  <si>
-    <t>اکرم سینایی</t>
-  </si>
-  <si>
-    <t>پوریا مقدسی</t>
-  </si>
-  <si>
-    <t>احمد رضا معین</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">رضا مولایی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">محمود وکیلی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">علی شمس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">رضا برهانی مرند</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سینا وکیلی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">رضا خوشخو</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کسری نیک فرجام</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سید محسن ابطحی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ندا اشرفی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اکرم سینایی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پوریا مقدسی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">احمد رضا معین</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -140,12 +126,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -427,17 +407,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="21.5" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -472,444 +449,441 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>16.7</v>
       </c>
-      <c r="C2">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="D2">
+      <c r="C2" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="D2" t="n">
         <v>17.7</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>17.2</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>16.7</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>16.7</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>18.2</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>15.3</v>
       </c>
-      <c r="J2">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="K2">
+      <c r="J2" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K2" t="n">
         <v>16.5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="C3">
+      <c r="B3" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="C3" t="n">
         <v>15.5</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>15.6</v>
       </c>
-      <c r="E3">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="F3">
+      <c r="E3" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="F3" t="n">
         <v>15.5</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>15.6</v>
       </c>
-      <c r="H3">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="I3">
+      <c r="H3" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="I3" t="n">
         <v>17.5</v>
       </c>
-      <c r="J3">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="K3">
+      <c r="J3" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="K3" t="n">
         <v>18.7</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>16.3</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>16.8</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>17.5</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>15.3</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>15.8</v>
       </c>
-      <c r="G4">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="H4">
+      <c r="G4" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="H4" t="n">
         <v>15.2</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>17</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>17.5</v>
       </c>
-      <c r="K4">
-        <v>16.399999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K4" t="n">
+        <v>16.4</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>17.2</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>16.8</v>
       </c>
-      <c r="D5">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="E5">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="F5">
+      <c r="D5" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="E5" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="F5" t="n">
         <v>16.7</v>
       </c>
-      <c r="G5">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="H5">
+      <c r="G5" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="H5" t="n">
         <v>16</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>18.3</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>16.2</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>17.3</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>16.2</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>17.5</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>17.5</v>
       </c>
-      <c r="F6">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="G6">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="H6">
+      <c r="F6" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="G6" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="H6" t="n">
         <v>17.3</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>17.7</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>17.3</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>16.8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>18.2</v>
       </c>
-      <c r="C7">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="D7">
+      <c r="C7" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="D7" t="n">
         <v>17.5</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>17.8</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>15.6</v>
       </c>
-      <c r="G7">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="H7">
+      <c r="G7" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="H7" t="n">
         <v>15.7</v>
       </c>
-      <c r="I7">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="J7">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="K7">
-        <v>18.600000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I7" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="J7" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="K7" t="n">
+        <v>18.6</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B8">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="C8">
+      <c r="B8" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="C8" t="n">
         <v>16.2</v>
       </c>
-      <c r="D8">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="E8">
+      <c r="D8" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="E8" t="n">
         <v>14.7</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>17.7</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>16.3</v>
       </c>
-      <c r="H8">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="I8">
+      <c r="H8" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="I8" t="n">
         <v>18.3</v>
       </c>
-      <c r="J8">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="K8">
+      <c r="J8" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="K8" t="n">
         <v>17.8</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="C9">
+      <c r="B9" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="C9" t="n">
         <v>14.9</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>17.3</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>16.5</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>15.9</v>
       </c>
-      <c r="G9">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="H9">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="I9">
+      <c r="G9" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="I9" t="n">
         <v>17</v>
       </c>
-      <c r="J9">
+      <c r="J9" t="n">
         <v>18.2</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="n">
         <v>16.2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B10">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="C10">
+      <c r="B10" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="C10" t="n">
         <v>16.8</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>18</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>15.9</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>17.2</v>
       </c>
-      <c r="G10">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="H10">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="I10">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="J10">
+      <c r="G10" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="H10" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="I10" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="J10" t="n">
         <v>17.7</v>
       </c>
-      <c r="K10">
-        <v>16.399999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" t="n">
+        <v>16.4</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>16.8</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>17.7</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>14.9</v>
       </c>
-      <c r="E11">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="F11">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="G11">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="H11">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="I11">
+      <c r="E11" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="F11" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="H11" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="I11" t="n">
         <v>16.3</v>
       </c>
-      <c r="J11">
+      <c r="J11" t="n">
         <v>16.8</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="n">
         <v>16.2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>17.5</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>16.7</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>18.2</v>
       </c>
-      <c r="E12">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="F12">
+      <c r="E12" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="F12" t="n">
         <v>18.2</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="n">
         <v>18.5</v>
       </c>
-      <c r="H12">
+      <c r="H12" t="n">
         <v>16.5</v>
       </c>
-      <c r="I12">
+      <c r="I12" t="n">
         <v>17.3</v>
       </c>
-      <c r="J12">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="K12">
-        <v>16.399999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J12" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>16.4</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>16.2</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>15.5</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>16.3</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>16.3</v>
       </c>
-      <c r="F13">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="G13">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="H13">
+      <c r="F13" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="G13" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="H13" t="n">
         <v>16.5</v>
       </c>
-      <c r="I13">
+      <c r="I13" t="n">
         <v>16.2</v>
       </c>
-      <c r="J13">
+      <c r="J13" t="n">
         <v>14.8</v>
       </c>
-      <c r="K13">
+      <c r="K13" t="n">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -944,444 +918,441 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>15.3</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>17.8</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>15.6</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>15.1</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>17.2</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>16.2</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>15.2</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>16.3</v>
       </c>
-      <c r="J2">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="K2">
-        <v>16.600000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J2" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K2" t="n">
+        <v>16.6</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>15.2</v>
       </c>
-      <c r="C3">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="D3">
+      <c r="C3" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="D3" t="n">
         <v>15.4</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>16.8</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>15</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>16.5</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>17.2</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>15.9</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>15.5</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="n">
         <v>15.5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>15.5</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>17.5</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>16.3</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>15.2</v>
       </c>
-      <c r="F4">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="G4">
+      <c r="F4" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="G4" t="n">
         <v>17.5</v>
       </c>
-      <c r="H4">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="I4">
+      <c r="H4" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="I4" t="n">
         <v>16.5</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>16.8</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>16.3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B5">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="C5">
+      <c r="B5" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C5" t="n">
         <v>15.6</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>15.2</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>16</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>15.1</v>
       </c>
-      <c r="G5">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="H5">
+      <c r="G5" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="H5" t="n">
         <v>15.9</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>17.3</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>16.8</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>15.9</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>15.2</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>15.1</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>16.7</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>16.5</v>
       </c>
-      <c r="F6">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="G6">
+      <c r="F6" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="G6" t="n">
         <v>15.1</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>16.3</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>17.3</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>15.3</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>15.3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>15.2</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>15.7</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>15.6</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>15.6</v>
       </c>
-      <c r="F7">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="G7">
+      <c r="F7" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="G7" t="n">
         <v>16</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>16.2</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>16.3</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="n">
         <v>17.2</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>15.7</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>16.2</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>16.5</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>16.7</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>16.5</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>15.3</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>15.8</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="n">
         <v>15.9</v>
       </c>
-      <c r="J8">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="K8">
+      <c r="J8" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K8" t="n">
         <v>16.5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>17.7</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>16.7</v>
       </c>
-      <c r="D9">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="E9">
+      <c r="D9" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="E9" t="n">
         <v>17</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>15.1</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>18</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="n">
         <v>17.5</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="n">
         <v>16.8</v>
       </c>
-      <c r="J9">
+      <c r="J9" t="n">
         <v>15.5</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="n">
         <v>15.2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>15.2</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>15.7</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>15.7</v>
       </c>
-      <c r="E10">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="F10">
+      <c r="E10" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="F10" t="n">
         <v>15.8</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>15.5</v>
       </c>
-      <c r="H10">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="I10">
+      <c r="H10" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="I10" t="n">
         <v>15.5</v>
       </c>
-      <c r="J10">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="K10">
+      <c r="J10" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="K10" t="n">
         <v>15.8</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>16.2</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>16.5</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>16.2</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>17.2</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>15.8</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="n">
         <v>16</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="n">
         <v>16</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="n">
         <v>15.6</v>
       </c>
-      <c r="J11">
+      <c r="J11" t="n">
         <v>15.5</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="n">
         <v>15.6</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>15.9</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>15.5</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>16</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>16</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>15.8</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="n">
         <v>15.8</v>
       </c>
-      <c r="H12">
+      <c r="H12" t="n">
         <v>17.3</v>
       </c>
-      <c r="I12">
+      <c r="I12" t="n">
         <v>17.2</v>
       </c>
-      <c r="J12">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="K12">
+      <c r="J12" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="K12" t="n">
         <v>16.8</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>17</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>15.8</v>
       </c>
-      <c r="D13">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="E13">
+      <c r="D13" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E13" t="n">
         <v>16</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="n">
         <v>17.7</v>
       </c>
-      <c r="G13">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="H13">
+      <c r="G13" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="H13" t="n">
         <v>16.7</v>
       </c>
-      <c r="I13">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="J13">
+      <c r="I13" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="J13" t="n">
         <v>15.8</v>
       </c>
-      <c r="K13">
+      <c r="K13" t="n">
         <v>15.7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1416,428 +1387,428 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>16.8</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>18</v>
       </c>
-      <c r="D2">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="E2">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="F2">
+      <c r="D2" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E2" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="F2" t="n">
         <v>18.2</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>15.5</v>
       </c>
-      <c r="H2">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="I2">
+      <c r="H2" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="I2" t="n">
         <v>18</v>
       </c>
-      <c r="J2">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="K2">
+      <c r="J2" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K2" t="n">
         <v>17.7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>17</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>18.3</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>16.8</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>17.7</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>18</v>
       </c>
-      <c r="G3">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="H3">
+      <c r="G3" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="H3" t="n">
         <v>18.5</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>16.7</v>
       </c>
-      <c r="J3">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="K3">
+      <c r="J3" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="K3" t="n">
         <v>18.8</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B4">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="C4">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="D4">
+      <c r="B4" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="D4" t="n">
         <v>15.9</v>
       </c>
-      <c r="E4">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="F4">
+      <c r="E4" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="F4" t="n">
         <v>17</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>17.7</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>17.8</v>
       </c>
-      <c r="I4">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="J4">
+      <c r="I4" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="J4" t="n">
         <v>18.2</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>18.8</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>18.8</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>18.3</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>18.5</v>
       </c>
-      <c r="F5">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="G5">
+      <c r="F5" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="G5" t="n">
         <v>19</v>
       </c>
-      <c r="H5">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="I5">
+      <c r="H5" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="I5" t="n">
         <v>18.5</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>16</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>19.8</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>17</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>18</v>
       </c>
-      <c r="D6">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="E6">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="F6">
+      <c r="D6" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E6" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="F6" t="n">
         <v>16.7</v>
       </c>
-      <c r="G6">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="H6">
+      <c r="G6" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="H6" t="n">
         <v>19.3</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>19</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>19.2</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>16.8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="B7">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="C7">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="D7">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="E7">
+      <c r="B7" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="C7" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="E7" t="n">
         <v>17.7</v>
       </c>
-      <c r="F7">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="G7">
+      <c r="F7" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="G7" t="n">
         <v>17.5</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>17.5</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>17.8</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="n">
         <v>19.2</v>
       </c>
-      <c r="K7">
-        <v>16.899999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" t="n">
+        <v>16.9</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>17.7</v>
       </c>
-      <c r="C8">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="D8">
+      <c r="C8" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="D8" t="n">
         <v>16.5</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>18.7</v>
       </c>
-      <c r="F8">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="G8">
+      <c r="F8" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="G8" t="n">
         <v>17</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>16.7</v>
       </c>
-      <c r="I8">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="J8">
+      <c r="I8" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="J8" t="n">
         <v>18.8</v>
       </c>
-      <c r="K8">
-        <v>18.100000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" t="n">
+        <v>18.1</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="C9">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="D9">
+      <c r="B9" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="C9" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="D9" t="n">
         <v>17.7</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>17.7</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>18.2</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>18</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="n">
         <v>19.7</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="n">
         <v>17.3</v>
       </c>
-      <c r="J9">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="K9">
+      <c r="J9" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K9" t="n">
         <v>17.8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B10">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="C10">
+      <c r="B10" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="C10" t="n">
         <v>18.2</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>18.8</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>17.8</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>17.5</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>17</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>18.5</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>17.5</v>
       </c>
-      <c r="J10">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="K10">
+      <c r="J10" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="K10" t="n">
         <v>18.3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B11">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="C11">
+      <c r="B11" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="C11" t="n">
         <v>18.2</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>16.7</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>16.8</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>16.3</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="n">
         <v>17.3</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="n">
         <v>19</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="n">
         <v>19.8</v>
       </c>
-      <c r="J11">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="K11">
-        <v>19.100000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J11" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="K11" t="n">
+        <v>19.1</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>18.8</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>17</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>17.7</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>17.8</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>18.5</v>
       </c>
-      <c r="G12">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="H12">
+      <c r="G12" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="H12" t="n">
         <v>18.3</v>
       </c>
-      <c r="I12">
+      <c r="I12" t="n">
         <v>17.7</v>
       </c>
-      <c r="J12">
+      <c r="J12" t="n">
         <v>19.3</v>
       </c>
-      <c r="K12">
+      <c r="K12" t="n">
         <v>18.7</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>18.2</v>
       </c>
-      <c r="C13">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="D13">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="E13">
+      <c r="C13" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="D13" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="E13" t="n">
         <v>19.2</v>
       </c>
-      <c r="F13">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="G13">
+      <c r="F13" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="G13" t="n">
         <v>18</v>
       </c>
-      <c r="H13">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="I13">
+      <c r="H13" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="I13" t="n">
         <v>18.3</v>
       </c>
-      <c r="J13">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="K13">
+      <c r="J13" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K13" t="n">
         <v>18.5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>